--- a/TgBot VS/TelegramBot/ExcelReports/AllAdds.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/AllAdds.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TelegramBot\ExcelReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4464BF0D-425B-4F4E-9716-AEDA39880FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53B208D9-23B9-4B08-8493-6C6126BD6AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{742AC830-ED12-4D6D-A3AB-801AAB340CFC}"/>
+    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{12D34E2B-EB56-4988-85E5-016FE8F3A333}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{8158292B-A75D-473F-8EF2-BF2EC87C8192}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{8DCD4CD2-132F-4053-B282-8C59516E8AED}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,39 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Таблица Users на 27.03.2024 18:50:52</t>
-  </si>
-  <si>
-    <t>id_add</t>
-  </si>
-  <si>
-    <t>advertiser</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>id_payrate</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>active_hours</t>
-  </si>
-  <si>
-    <t>last_hours_add</t>
-  </si>
-  <si>
-    <t>aboba</t>
-  </si>
-  <si>
-    <t>привет всем</t>
+    <t>Таблица Users на 03.04.2024 22:50:04</t>
   </si>
 </sst>
 </file>
@@ -106,11 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -129,8 +97,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{384A5338-9DEE-405C-9344-F19F7B96F7EA}">
-  <header guid="{384A5338-9DEE-405C-9344-F19F7B96F7EA}" dateTime="2024-03-27T18:50:52" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D3FC5B9A-E0E3-4B4C-B60B-C4301EFC0CE5}">
+  <header guid="{D3FC5B9A-E0E3-4B4C-B60B-C4301EFC0CE5}" dateTime="2024-04-03T22:50:04" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -442,22 +410,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93507F55-498C-48DA-AA95-CDC9126C7E47}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC3D541-EF88-4E3C-845F-1220D931949E}">
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.73046875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -489,87 +447,9 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>120</v>
-      </c>
-      <c r="G4">
-        <v>111</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45378.779861111114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>120</v>
-      </c>
-      <c r="G5">
-        <v>111</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45370</v>
-      </c>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8158292B-A75D-473F-8EF2-BF2EC87C8192}">
+    <customSheetView guid="{8DCD4CD2-132F-4053-B282-8C59516E8AED}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/TgBot VS/TelegramBot/ExcelReports/AllAdds.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/AllAdds.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53B208D9-23B9-4B08-8493-6C6126BD6AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA67946-A595-4C01-9767-91EB4E311F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{12D34E2B-EB56-4988-85E5-016FE8F3A333}"/>
+    <workbookView xWindow="754" yWindow="754" windowWidth="18515" windowHeight="9583" xr2:uid="{44F19078-BB71-42C0-B2BD-74B1E9C880EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{8DCD4CD2-132F-4053-B282-8C59516E8AED}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{3AF187B1-58EB-4A40-BE7C-47F21766C0C4}" mergeInterval="0" personalView="1" xWindow="88" yWindow="88" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,9 +37,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Таблица Users на 03.04.2024 22:50:04</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Таблица Users на 03.05.2024 16:01:26</t>
+  </si>
+  <si>
+    <t>id_add</t>
+  </si>
+  <si>
+    <t>advertiser</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>id_payrate</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>active_hours</t>
+  </si>
+  <si>
+    <t>last_hours_add</t>
+  </si>
+  <si>
+    <t>Мяу</t>
   </si>
 </sst>
 </file>
@@ -76,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -97,8 +125,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D3FC5B9A-E0E3-4B4C-B60B-C4301EFC0CE5}">
-  <header guid="{D3FC5B9A-E0E3-4B4C-B60B-C4301EFC0CE5}" dateTime="2024-04-03T22:50:04" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{29752C81-F2CE-4981-8444-E8E11302E6F4}">
+  <header guid="{29752C81-F2CE-4981-8444-E8E11302E6F4}" dateTime="2024-05-03T16:01:26" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -410,14 +438,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC3D541-EF88-4E3C-845F-1220D931949E}">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490EFFAA-48F2-4F1F-BAB1-BEDF78C96955}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,9 +485,61 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45415.662499999999</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8DCD4CD2-132F-4053-B282-8C59516E8AED}">
+    <customSheetView guid="{3AF187B1-58EB-4A40-BE7C-47F21766C0C4}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/TgBot VS/TelegramBot/ExcelReports/AllAdds.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/AllAdds.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA67946-A595-4C01-9767-91EB4E311F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB1C66B-6537-44C9-A4A2-F18B08E2D708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="18515" windowHeight="9583" xr2:uid="{44F19078-BB71-42C0-B2BD-74B1E9C880EA}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="18514" windowHeight="9583" xr2:uid="{3BDABE3C-C43E-448E-991C-225BABC45C8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{3AF187B1-58EB-4A40-BE7C-47F21766C0C4}" mergeInterval="0" personalView="1" xWindow="88" yWindow="88" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{6D3C60DA-9AE5-48FF-9351-7B82BC4D7856}" mergeInterval="0" personalView="1" xWindow="308" yWindow="308" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,36 +37,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Таблица Users на 03.05.2024 16:01:26</t>
-  </si>
-  <si>
-    <t>id_add</t>
-  </si>
-  <si>
-    <t>advertiser</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>id_payrate</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>active_hours</t>
-  </si>
-  <si>
-    <t>last_hours_add</t>
-  </si>
-  <si>
-    <t>Мяу</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Таблица Adds на 18.06.2024 0:37:32</t>
+  </si>
+  <si>
+    <t>Заявка №</t>
+  </si>
+  <si>
+    <t>Рекламодатель</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Время работы в часах</t>
+  </si>
+  <si>
+    <t>Прошло часов</t>
+  </si>
+  <si>
+    <t>Последнее обновление часов</t>
+  </si>
+  <si>
+    <t>karemp1</t>
+  </si>
+  <si>
+    <t>попа</t>
+  </si>
+  <si>
+    <t>Базовый</t>
+  </si>
+  <si>
+    <t>Активна</t>
   </si>
 </sst>
 </file>
@@ -125,8 +134,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{29752C81-F2CE-4981-8444-E8E11302E6F4}">
-  <header guid="{29752C81-F2CE-4981-8444-E8E11302E6F4}" dateTime="2024-05-03T16:01:26" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3889F8D5-C5F4-4FBC-B549-0D0D5F19170C}">
+  <header guid="{3889F8D5-C5F4-4FBC-B549-0D0D5F19170C}" dateTime="2024-06-18T00:37:32" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -438,21 +447,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490EFFAA-48F2-4F1F-BAB1-BEDF78C96955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABCDFEB-9A22-404E-BD8A-B0198B8AE2AF}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.61328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
@@ -513,33 +522,33 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>78</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>45415.662499999999</v>
+        <v>45461.003472222219</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3AF187B1-58EB-4A40-BE7C-47F21766C0C4}">
+    <customSheetView guid="{6D3C60DA-9AE5-48FF-9351-7B82BC4D7856}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
